--- a/src/main/resources/xlsx-templates/mas-report-3b.xlsx
+++ b/src/main/resources/xlsx-templates/mas-report-3b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProject\dtc-settlement-engine\src\main\resources\xlsx-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00CE9B3-9771-46EC-AA66-B7B985A3E38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6883AEE8-B2D2-4BE6-96E9-0F21B95832DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3B Summary" sheetId="5" r:id="rId1"/>
@@ -303,6 +303,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -702,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -804,8 +807,41 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,92 +864,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC7A168-8554-4268-ACD7-9F07E022F1C7}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1146,49 +1158,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
     </row>
     <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="32" t="s">
         <v>4</v>
       </c>
@@ -1197,115 +1209,91 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="70">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="4">
-        <v>1001</v>
-      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="72">
-        <v>2</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="4">
-        <v>122</v>
-      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="70">
-        <v>2.99</v>
-      </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="4">
-        <v>2000</v>
-      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="70">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="4">
-        <v>1001</v>
-      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="72">
-        <v>2</v>
-      </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="4">
-        <v>8</v>
-      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="39">
-        <v>2.99</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="5">
-        <v>2000</v>
-      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -1317,11 +1305,11 @@
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="32" t="s">
         <v>4</v>
       </c>
@@ -1330,125 +1318,101 @@
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="70">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="4">
-        <v>1001</v>
-      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="72">
-        <v>11</v>
-      </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="70">
-        <v>2.99</v>
-      </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="4">
-        <v>2000</v>
-      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="70">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="4">
-        <v>1001</v>
-      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="72">
-        <v>11</v>
-      </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="39">
-        <v>2.99</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="5">
-        <v>2000</v>
-      </c>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:5" ht="75.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="9" t="s">
         <v>4</v>
       </c>
@@ -1460,52 +1424,36 @@
       <c r="A30" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="47">
-        <v>90.99</v>
-      </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="36">
-        <v>10</v>
-      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="49">
-        <v>0</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="14">
-        <v>0</v>
-      </c>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="47">
-        <v>0</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="14">
-        <v>0</v>
-      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="51">
-        <v>0</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="15">
-        <v>0</v>
-      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="35"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1516,10 +1464,10 @@
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="9" t="s">
         <v>4</v>
       </c>
@@ -1531,52 +1479,36 @@
       <c r="A36" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="47">
-        <v>0</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="14">
-        <v>0</v>
-      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="34"/>
     </row>
     <row r="37" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="47">
-        <v>0</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="14">
-        <v>0</v>
-      </c>
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="34"/>
     </row>
     <row r="38" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="47">
-        <v>0</v>
-      </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="14">
-        <v>0</v>
-      </c>
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="34"/>
     </row>
     <row r="39" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="47">
-        <v>0</v>
-      </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="14">
-        <v>0</v>
-      </c>
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="35"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1528,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="43" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="20">
@@ -1606,7 +1538,7 @@
       <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="22">
         <v>2</v>
       </c>
@@ -1614,7 +1546,7 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="20">
         <v>3</v>
       </c>
@@ -1622,7 +1554,7 @@
       <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="20">
         <v>4</v>
       </c>
@@ -1630,7 +1562,7 @@
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="22">
         <v>5</v>
       </c>
@@ -1638,7 +1570,7 @@
       <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="20">
         <v>6</v>
       </c>
@@ -1646,7 +1578,7 @@
       <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="22">
         <v>7</v>
       </c>
@@ -1654,7 +1586,7 @@
       <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="20">
         <v>8</v>
       </c>
@@ -1662,7 +1594,7 @@
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="20">
         <v>9</v>
       </c>
@@ -1670,7 +1602,7 @@
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="20">
         <v>10</v>
       </c>
@@ -1688,7 +1620,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B53" s="20">
@@ -1698,7 +1630,7 @@
       <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="55"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="20">
         <v>2</v>
       </c>
@@ -1706,7 +1638,7 @@
       <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="55"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="20">
         <v>3</v>
       </c>
@@ -1714,7 +1646,7 @@
       <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="20">
         <v>4</v>
       </c>
@@ -1722,7 +1654,7 @@
       <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="55"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="20">
         <v>5</v>
       </c>
@@ -1730,7 +1662,7 @@
       <c r="D57" s="23"/>
     </row>
     <row r="58" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="20">
         <v>6</v>
       </c>
@@ -1738,7 +1670,7 @@
       <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="55"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="20">
         <v>7</v>
       </c>
@@ -1746,7 +1678,7 @@
       <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="55"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="20">
         <v>8</v>
       </c>
@@ -1754,7 +1686,7 @@
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="55"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="20">
         <v>9</v>
       </c>
@@ -1762,7 +1694,7 @@
       <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="24">
         <v>10</v>
       </c>
@@ -1771,36 +1703,32 @@
     </row>
     <row r="63" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="54"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
-      <c r="B65" s="57">
-        <v>0</v>
-      </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="5">
-        <v>0</v>
-      </c>
+      <c r="A65" s="50"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:5" ht="90.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="54"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="9" t="s">
         <v>4</v>
       </c>
@@ -1812,17 +1740,17 @@
       <c r="A68" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="61"/>
-      <c r="C68" s="62"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="74"/>
       <c r="D68" s="13"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="64"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="68"/>
       <c r="D69" s="14"/>
       <c r="E69" s="16"/>
     </row>
@@ -1830,6 +1758,8 @@
       <c r="A70" s="29" t="s">
         <v>25</v>
       </c>
+      <c r="B70" s="75"/>
+      <c r="C70" s="76"/>
       <c r="D70" s="15"/>
       <c r="E70" s="11"/>
     </row>
@@ -1839,104 +1769,104 @@
         <v>10</v>
       </c>
       <c r="B72" s="26"/>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="54"/>
+      <c r="D72" s="46"/>
       <c r="E72" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="55" t="s">
+      <c r="A73" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B73" s="20">
         <v>1</v>
       </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="62"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="42"/>
       <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="55"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="22">
         <v>2</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="62"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="42"/>
       <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="55"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="20">
         <v>3</v>
       </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="62"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="42"/>
       <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="55"/>
+      <c r="A76" s="43"/>
       <c r="B76" s="20">
         <v>4</v>
       </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="62"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
       <c r="E76" s="21"/>
     </row>
     <row r="77" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="55"/>
+      <c r="A77" s="43"/>
       <c r="B77" s="22">
         <v>5</v>
       </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="62"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="42"/>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="55"/>
+      <c r="A78" s="43"/>
       <c r="B78" s="20">
         <v>6</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="62"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="42"/>
       <c r="E78" s="21"/>
     </row>
     <row r="79" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="55"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="22">
         <v>7</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="62"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="42"/>
       <c r="E79" s="21"/>
     </row>
     <row r="80" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="55"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="20">
         <v>8</v>
       </c>
-      <c r="C80" s="61"/>
-      <c r="D80" s="62"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="55"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="20">
         <v>9</v>
       </c>
-      <c r="C81" s="61"/>
-      <c r="D81" s="62"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="42"/>
       <c r="E81" s="21"/>
     </row>
     <row r="82" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="55"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="20">
         <v>10</v>
       </c>
-      <c r="C82" s="61"/>
-      <c r="D82" s="62"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
       <c r="E82" s="21"/>
     </row>
     <row r="83" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1944,128 +1874,141 @@
         <v>27</v>
       </c>
       <c r="B83" s="27"/>
-      <c r="C83" s="65" t="s">
+      <c r="C83" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D83" s="66"/>
+      <c r="D83" s="48"/>
       <c r="E83" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="55" t="s">
+      <c r="A84" s="43" t="s">
         <v>28</v>
       </c>
       <c r="B84" s="20">
         <v>1</v>
       </c>
-      <c r="C84" s="61"/>
-      <c r="D84" s="62"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="74"/>
       <c r="E84" s="10"/>
     </row>
     <row r="85" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="55"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="20">
         <v>2</v>
       </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="62"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="74"/>
       <c r="E85" s="10"/>
     </row>
     <row r="86" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
+      <c r="A86" s="43"/>
       <c r="B86" s="20">
         <v>3</v>
       </c>
-      <c r="C86" s="61"/>
-      <c r="D86" s="62"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="74"/>
       <c r="E86" s="10"/>
     </row>
     <row r="87" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
+      <c r="A87" s="43"/>
       <c r="B87" s="20">
         <v>4</v>
       </c>
-      <c r="C87" s="61"/>
-      <c r="D87" s="62"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="74"/>
       <c r="E87" s="10"/>
     </row>
     <row r="88" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="55"/>
+      <c r="A88" s="43"/>
       <c r="B88" s="20">
         <v>5</v>
       </c>
-      <c r="C88" s="61"/>
-      <c r="D88" s="62"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="74"/>
       <c r="E88" s="10"/>
     </row>
     <row r="89" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="55"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="20">
         <v>6</v>
       </c>
-      <c r="C89" s="61"/>
-      <c r="D89" s="62"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="74"/>
       <c r="E89" s="10"/>
     </row>
     <row r="90" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="55"/>
+      <c r="A90" s="43"/>
       <c r="B90" s="20">
         <v>7</v>
       </c>
-      <c r="C90" s="61"/>
-      <c r="D90" s="62"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="74"/>
       <c r="E90" s="10"/>
     </row>
     <row r="91" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="55"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="20">
         <v>8</v>
       </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="62"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="74"/>
       <c r="E91" s="10"/>
     </row>
     <row r="92" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="55"/>
+      <c r="A92" s="43"/>
       <c r="B92" s="20">
         <v>9</v>
       </c>
-      <c r="C92" s="61"/>
-      <c r="D92" s="62"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="74"/>
       <c r="E92" s="10"/>
     </row>
     <row r="93" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="44"/>
       <c r="B93" s="24">
         <v>10</v>
       </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="68"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="78"/>
       <c r="E93" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
+  <mergeCells count="69">
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="A84:A93"/>
@@ -2082,38 +2025,26 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
